--- a/ExponentialGolombCoding/exp-golumb-1.xlsx
+++ b/ExponentialGolombCoding/exp-golumb-1.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thtlf\source\repos\Undergraduate\ExponentialGolombCoding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50142093-7C40-41D7-911A-68C69E4DD2A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ㅋㅋㅋ노가다했었네" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -598,7 +597,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1591,10 +1590,97 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1606,12 +1692,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1621,12 +1734,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1645,9 +1752,6 @@
     <xf numFmtId="0" fontId="25" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1684,112 +1788,7 @@
     <xf numFmtId="0" fontId="16" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2517,7 +2516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HM170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2619,12 +2618,12 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="U2" s="135" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
+      <c r="U2" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
       <c r="Y2" s="13">
         <v>16</v>
       </c>
@@ -2731,46 +2730,46 @@
       <c r="BJ2" s="62">
         <v>17</v>
       </c>
-      <c r="BZ2" s="114" t="s">
+      <c r="BZ2" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="CA2" s="114"/>
-      <c r="CB2" s="114"/>
-      <c r="CC2" s="114"/>
-      <c r="CD2" s="114"/>
-      <c r="CE2" s="114"/>
-      <c r="CF2" s="114"/>
-      <c r="CG2" s="114"/>
-      <c r="CH2" s="132" t="s">
+      <c r="CA2" s="95"/>
+      <c r="CB2" s="95"/>
+      <c r="CC2" s="95"/>
+      <c r="CD2" s="95"/>
+      <c r="CE2" s="95"/>
+      <c r="CF2" s="95"/>
+      <c r="CG2" s="95"/>
+      <c r="CH2" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="CI2" s="130"/>
-      <c r="CJ2" s="130"/>
-      <c r="CK2" s="130"/>
-      <c r="CL2" s="130"/>
-      <c r="CM2" s="130"/>
-      <c r="CN2" s="130"/>
-      <c r="CO2" s="131"/>
-      <c r="CP2" s="130" t="s">
+      <c r="CI2" s="97"/>
+      <c r="CJ2" s="97"/>
+      <c r="CK2" s="97"/>
+      <c r="CL2" s="97"/>
+      <c r="CM2" s="97"/>
+      <c r="CN2" s="97"/>
+      <c r="CO2" s="98"/>
+      <c r="CP2" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="CQ2" s="130"/>
-      <c r="CR2" s="130"/>
-      <c r="CS2" s="130"/>
-      <c r="CT2" s="130"/>
-      <c r="CU2" s="130"/>
-      <c r="CV2" s="130"/>
-      <c r="CW2" s="131"/>
-      <c r="CX2" s="132" t="s">
+      <c r="CQ2" s="97"/>
+      <c r="CR2" s="97"/>
+      <c r="CS2" s="97"/>
+      <c r="CT2" s="97"/>
+      <c r="CU2" s="97"/>
+      <c r="CV2" s="97"/>
+      <c r="CW2" s="98"/>
+      <c r="CX2" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="CY2" s="130"/>
-      <c r="CZ2" s="130"/>
-      <c r="DA2" s="130"/>
-      <c r="DB2" s="130"/>
-      <c r="DC2" s="130"/>
-      <c r="DD2" s="130"/>
-      <c r="DE2" s="131"/>
+      <c r="CY2" s="97"/>
+      <c r="CZ2" s="97"/>
+      <c r="DA2" s="97"/>
+      <c r="DB2" s="97"/>
+      <c r="DC2" s="97"/>
+      <c r="DD2" s="97"/>
+      <c r="DE2" s="98"/>
     </row>
     <row r="3" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -2817,12 +2816,12 @@
       <c r="T3" s="1">
         <v>1</v>
       </c>
-      <c r="U3" s="133" t="s">
+      <c r="U3" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
       <c r="Y3" s="15">
         <v>0</v>
       </c>
@@ -3002,10 +3001,10 @@
       <c r="T4" s="1">
         <v>0</v>
       </c>
-      <c r="U4" s="134"/>
-      <c r="V4" s="134"/>
-      <c r="W4" s="134"/>
-      <c r="X4" s="134"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
       <c r="Z4" s="17">
         <v>0</v>
       </c>
@@ -3180,10 +3179,10 @@
       <c r="T5" s="1">
         <v>0</v>
       </c>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
       <c r="Z5" s="19">
         <v>0</v>
       </c>
@@ -3364,10 +3363,10 @@
       <c r="T6" s="1">
         <v>0</v>
       </c>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="134"/>
+      <c r="U6" s="100"/>
+      <c r="V6" s="100"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="100"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="23">
         <v>0</v>
@@ -3544,10 +3543,10 @@
       <c r="T7" s="1">
         <v>0</v>
       </c>
-      <c r="U7" s="134"/>
-      <c r="V7" s="134"/>
-      <c r="W7" s="134"/>
-      <c r="X7" s="134"/>
+      <c r="U7" s="100"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="28">
@@ -3723,10 +3722,10 @@
       <c r="T8" s="1">
         <v>1</v>
       </c>
-      <c r="U8" s="134"/>
-      <c r="V8" s="134"/>
-      <c r="W8" s="134"/>
-      <c r="X8" s="134"/>
+      <c r="U8" s="100"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="100"/>
+      <c r="X8" s="100"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="30">
         <v>0</v>
@@ -3918,10 +3917,10 @@
       <c r="T9" s="1">
         <v>0</v>
       </c>
-      <c r="U9" s="134"/>
-      <c r="V9" s="134"/>
-      <c r="W9" s="134"/>
-      <c r="X9" s="134"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="100"/>
+      <c r="W9" s="100"/>
+      <c r="X9" s="100"/>
       <c r="Z9" s="17">
         <v>0</v>
       </c>
@@ -4129,10 +4128,10 @@
       <c r="T10" s="1">
         <v>0</v>
       </c>
-      <c r="U10" s="134"/>
-      <c r="V10" s="134"/>
-      <c r="W10" s="134"/>
-      <c r="X10" s="134"/>
+      <c r="U10" s="100"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="100"/>
+      <c r="X10" s="100"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="30">
         <v>0</v>
@@ -4370,10 +4369,10 @@
       <c r="T11" s="1">
         <v>0</v>
       </c>
-      <c r="U11" s="134"/>
-      <c r="V11" s="134"/>
-      <c r="W11" s="134"/>
-      <c r="X11" s="134"/>
+      <c r="U11" s="100"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="100"/>
+      <c r="X11" s="100"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="19">
         <v>0</v>
@@ -4581,10 +4580,10 @@
       <c r="T12" s="1">
         <v>0</v>
       </c>
-      <c r="U12" s="134"/>
-      <c r="V12" s="134"/>
-      <c r="W12" s="134"/>
-      <c r="X12" s="134"/>
+      <c r="U12" s="100"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="100"/>
+      <c r="X12" s="100"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="25"/>
       <c r="AB12" s="30">
@@ -4713,10 +4712,10 @@
       <c r="T13" s="11">
         <v>0</v>
       </c>
-      <c r="U13" s="134"/>
-      <c r="V13" s="134"/>
-      <c r="W13" s="134"/>
-      <c r="X13" s="134"/>
+      <c r="U13" s="100"/>
+      <c r="V13" s="100"/>
+      <c r="W13" s="100"/>
+      <c r="X13" s="100"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="23">
         <v>0</v>
@@ -4855,10 +4854,10 @@
       <c r="T14" s="1">
         <v>0</v>
       </c>
-      <c r="U14" s="134"/>
-      <c r="V14" s="134"/>
-      <c r="W14" s="134"/>
-      <c r="X14" s="134"/>
+      <c r="U14" s="100"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="100"/>
+      <c r="X14" s="100"/>
       <c r="Z14" s="10">
         <v>0</v>
       </c>
@@ -5007,10 +5006,10 @@
       <c r="T15" s="1">
         <v>0</v>
       </c>
-      <c r="U15" s="134"/>
-      <c r="V15" s="134"/>
-      <c r="W15" s="134"/>
-      <c r="X15" s="134"/>
+      <c r="U15" s="100"/>
+      <c r="V15" s="100"/>
+      <c r="W15" s="100"/>
+      <c r="X15" s="100"/>
       <c r="Z15" s="14">
         <v>0</v>
       </c>
@@ -5164,10 +5163,10 @@
       <c r="T16" s="1">
         <v>1</v>
       </c>
-      <c r="U16" s="134"/>
-      <c r="V16" s="134"/>
-      <c r="W16" s="134"/>
-      <c r="X16" s="134"/>
+      <c r="U16" s="100"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="100"/>
+      <c r="X16" s="100"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="23">
         <v>0</v>
@@ -5311,10 +5310,10 @@
       <c r="T17" s="1">
         <v>1</v>
       </c>
-      <c r="U17" s="134"/>
-      <c r="V17" s="134"/>
-      <c r="W17" s="134"/>
-      <c r="X17" s="134"/>
+      <c r="U17" s="100"/>
+      <c r="V17" s="100"/>
+      <c r="W17" s="100"/>
+      <c r="X17" s="100"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="30">
         <v>0</v>
@@ -5458,10 +5457,10 @@
       <c r="T18" s="1">
         <v>1</v>
       </c>
-      <c r="U18" s="134"/>
-      <c r="V18" s="134"/>
-      <c r="W18" s="134"/>
-      <c r="X18" s="134"/>
+      <c r="U18" s="100"/>
+      <c r="V18" s="100"/>
+      <c r="W18" s="100"/>
+      <c r="X18" s="100"/>
       <c r="Z18" s="14">
         <v>0</v>
       </c>
@@ -5610,58 +5609,58 @@
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
-      <c r="AK19" s="136" t="s">
+      <c r="AK19" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="AL19" s="137"/>
-      <c r="AM19" s="137"/>
-      <c r="AN19" s="137"/>
-      <c r="AO19" s="137"/>
-      <c r="AP19" s="137"/>
-      <c r="AQ19" s="137"/>
-      <c r="AR19" s="137"/>
-      <c r="AS19" s="137"/>
-      <c r="AT19" s="137"/>
-      <c r="AU19" s="130" t="s">
+      <c r="AL19" s="103"/>
+      <c r="AM19" s="103"/>
+      <c r="AN19" s="103"/>
+      <c r="AO19" s="103"/>
+      <c r="AP19" s="103"/>
+      <c r="AQ19" s="103"/>
+      <c r="AR19" s="103"/>
+      <c r="AS19" s="103"/>
+      <c r="AT19" s="103"/>
+      <c r="AU19" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="AV19" s="130"/>
-      <c r="AW19" s="130"/>
-      <c r="AX19" s="130"/>
-      <c r="AY19" s="130"/>
-      <c r="AZ19" s="130"/>
-      <c r="BA19" s="130"/>
-      <c r="BB19" s="131"/>
-      <c r="BC19" s="130" t="s">
+      <c r="AV19" s="97"/>
+      <c r="AW19" s="97"/>
+      <c r="AX19" s="97"/>
+      <c r="AY19" s="97"/>
+      <c r="AZ19" s="97"/>
+      <c r="BA19" s="97"/>
+      <c r="BB19" s="98"/>
+      <c r="BC19" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="BD19" s="130"/>
-      <c r="BE19" s="130"/>
-      <c r="BF19" s="130"/>
-      <c r="BG19" s="130"/>
-      <c r="BH19" s="130"/>
-      <c r="BI19" s="130"/>
-      <c r="BJ19" s="131"/>
-      <c r="BK19" s="130" t="s">
+      <c r="BD19" s="97"/>
+      <c r="BE19" s="97"/>
+      <c r="BF19" s="97"/>
+      <c r="BG19" s="97"/>
+      <c r="BH19" s="97"/>
+      <c r="BI19" s="97"/>
+      <c r="BJ19" s="98"/>
+      <c r="BK19" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="BL19" s="130"/>
-      <c r="BM19" s="130"/>
-      <c r="BN19" s="130"/>
-      <c r="BO19" s="130"/>
-      <c r="BP19" s="130"/>
-      <c r="BQ19" s="130"/>
-      <c r="BR19" s="131"/>
-      <c r="BS19" s="130" t="s">
+      <c r="BL19" s="97"/>
+      <c r="BM19" s="97"/>
+      <c r="BN19" s="97"/>
+      <c r="BO19" s="97"/>
+      <c r="BP19" s="97"/>
+      <c r="BQ19" s="97"/>
+      <c r="BR19" s="98"/>
+      <c r="BS19" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="BT19" s="130"/>
-      <c r="BU19" s="130"/>
-      <c r="BV19" s="130"/>
-      <c r="BW19" s="130"/>
-      <c r="BX19" s="130"/>
-      <c r="BY19" s="130"/>
-      <c r="BZ19" s="131"/>
+      <c r="BT19" s="97"/>
+      <c r="BU19" s="97"/>
+      <c r="BV19" s="97"/>
+      <c r="BW19" s="97"/>
+      <c r="BX19" s="97"/>
+      <c r="BY19" s="97"/>
+      <c r="BZ19" s="98"/>
     </row>
     <row r="20" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
@@ -5733,12 +5732,12 @@
       <c r="AE20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
-      <c r="AQ20" s="114" t="s">
+      <c r="AQ20" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="AR20" s="114"/>
-      <c r="AS20" s="114"/>
-      <c r="AT20" s="114"/>
+      <c r="AR20" s="95"/>
+      <c r="AS20" s="95"/>
+      <c r="AT20" s="95"/>
       <c r="AU20" s="68">
         <v>1</v>
       </c>
@@ -5910,12 +5909,12 @@
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
-      <c r="AQ21" s="114" t="s">
+      <c r="AQ21" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="AR21" s="114"/>
-      <c r="AS21" s="114"/>
-      <c r="AT21" s="114"/>
+      <c r="AR21" s="95"/>
+      <c r="AS21" s="95"/>
+      <c r="AT21" s="95"/>
       <c r="AU21">
         <v>0</v>
       </c>
@@ -6047,12 +6046,12 @@
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
-      <c r="AQ22" s="114">
+      <c r="AQ22" s="95">
         <v>255</v>
       </c>
-      <c r="AR22" s="114"/>
-      <c r="AS22" s="114"/>
-      <c r="AT22" s="114"/>
+      <c r="AR22" s="95"/>
+      <c r="AS22" s="95"/>
+      <c r="AT22" s="95"/>
       <c r="AU22" s="72">
         <v>0</v>
       </c>
@@ -6215,10 +6214,10 @@
       <c r="AJ23" s="1">
         <v>0</v>
       </c>
-      <c r="AQ23" s="114"/>
-      <c r="AR23" s="114"/>
-      <c r="AS23" s="114"/>
-      <c r="AT23" s="114"/>
+      <c r="AQ23" s="95"/>
+      <c r="AR23" s="95"/>
+      <c r="AS23" s="95"/>
+      <c r="AT23" s="95"/>
       <c r="AU23" s="68">
         <v>0</v>
       </c>
@@ -6353,10 +6352,10 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="AQ24" s="114"/>
-      <c r="AR24" s="114"/>
-      <c r="AS24" s="114"/>
-      <c r="AT24" s="114"/>
+      <c r="AQ24" s="95"/>
+      <c r="AR24" s="95"/>
+      <c r="AS24" s="95"/>
+      <c r="AT24" s="95"/>
       <c r="AU24" s="79">
         <v>0</v>
       </c>
@@ -6487,10 +6486,10 @@
       <c r="J25" s="1">
         <v>1</v>
       </c>
-      <c r="AQ25" s="114"/>
-      <c r="AR25" s="114"/>
-      <c r="AS25" s="114"/>
-      <c r="AT25" s="114"/>
+      <c r="AQ25" s="95"/>
+      <c r="AR25" s="95"/>
+      <c r="AS25" s="95"/>
+      <c r="AT25" s="95"/>
       <c r="AU25" s="68">
         <v>0</v>
       </c>
@@ -6621,10 +6620,10 @@
       <c r="J26" s="1">
         <v>0</v>
       </c>
-      <c r="AQ26" s="114"/>
-      <c r="AR26" s="114"/>
-      <c r="AS26" s="114"/>
-      <c r="AT26" s="114"/>
+      <c r="AQ26" s="95"/>
+      <c r="AR26" s="95"/>
+      <c r="AS26" s="95"/>
+      <c r="AT26" s="95"/>
       <c r="AU26" s="79">
         <v>0</v>
       </c>
@@ -7631,24 +7630,24 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39"/>
-      <c r="I39" s="114" t="s">
+      <c r="I39" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="114"/>
-      <c r="K39" s="114"/>
-      <c r="L39" s="114"/>
-      <c r="M39" s="114"/>
-      <c r="N39" s="114"/>
-      <c r="O39" s="114"/>
-      <c r="P39" s="114"/>
-      <c r="Q39" s="114"/>
-      <c r="R39" s="114"/>
-      <c r="S39" s="114"/>
-      <c r="T39" s="114"/>
-      <c r="U39" s="114"/>
-      <c r="V39" s="114"/>
-      <c r="W39" s="114"/>
-      <c r="X39" s="114"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="95"/>
+      <c r="T39" s="95"/>
+      <c r="U39" s="95"/>
+      <c r="V39" s="95"/>
+      <c r="W39" s="95"/>
+      <c r="X39" s="95"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
@@ -7677,39 +7676,39 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40"/>
-      <c r="I40" s="114">
-        <v>1</v>
-      </c>
-      <c r="J40" s="114"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="114" t="s">
+      <c r="I40" s="95">
+        <v>1</v>
+      </c>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="N40" s="114"/>
-      <c r="O40" s="114"/>
-      <c r="P40" s="114"/>
-      <c r="Q40" s="114"/>
-      <c r="R40" s="114"/>
-      <c r="S40" s="114"/>
-      <c r="T40" s="114"/>
-      <c r="U40" s="114"/>
-      <c r="V40" s="114"/>
-      <c r="W40" s="114"/>
-      <c r="X40" s="114"/>
-      <c r="Y40" s="138" t="s">
+      <c r="N40" s="95"/>
+      <c r="O40" s="95"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="95"/>
+      <c r="S40" s="95"/>
+      <c r="T40" s="95"/>
+      <c r="U40" s="95"/>
+      <c r="V40" s="95"/>
+      <c r="W40" s="95"/>
+      <c r="X40" s="95"/>
+      <c r="Y40" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="Z40" s="138"/>
-      <c r="AA40" s="138"/>
-      <c r="AB40" s="138"/>
-      <c r="AC40" s="138"/>
-      <c r="AD40" s="138"/>
-      <c r="AE40" s="138"/>
-      <c r="AF40" s="138"/>
-      <c r="AG40" s="138"/>
-      <c r="AH40" s="138"/>
-      <c r="AI40" s="138"/>
+      <c r="Z40" s="96"/>
+      <c r="AA40" s="96"/>
+      <c r="AB40" s="96"/>
+      <c r="AC40" s="96"/>
+      <c r="AD40" s="96"/>
+      <c r="AE40" s="96"/>
+      <c r="AF40" s="96"/>
+      <c r="AG40" s="96"/>
+      <c r="AH40" s="96"/>
+      <c r="AI40" s="96"/>
       <c r="AQ40" s="50"/>
       <c r="AR40" s="50"/>
       <c r="AS40" s="50"/>
@@ -7721,24 +7720,24 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41"/>
-      <c r="I41" s="114">
+      <c r="I41" s="95">
         <v>3</v>
       </c>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="114"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="114"/>
-      <c r="O41" s="114"/>
-      <c r="P41" s="114"/>
-      <c r="Q41" s="114"/>
-      <c r="R41" s="114"/>
-      <c r="S41" s="114"/>
-      <c r="T41" s="114"/>
-      <c r="U41" s="114"/>
-      <c r="V41" s="114"/>
-      <c r="W41" s="114"/>
-      <c r="X41" s="114"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="95"/>
+      <c r="U41" s="95"/>
+      <c r="V41" s="95"/>
+      <c r="W41" s="95"/>
+      <c r="X41" s="95"/>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
@@ -7763,24 +7762,24 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42"/>
-      <c r="I42" s="114">
+      <c r="I42" s="95">
         <v>5</v>
       </c>
-      <c r="J42" s="114"/>
-      <c r="K42" s="114"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
-      <c r="O42" s="114"/>
-      <c r="P42" s="114"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="114"/>
-      <c r="S42" s="114"/>
-      <c r="T42" s="114"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="114"/>
-      <c r="X42" s="114"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="95"/>
+      <c r="W42" s="95"/>
+      <c r="X42" s="95"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
@@ -7805,24 +7804,24 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43"/>
-      <c r="I43" s="114">
+      <c r="I43" s="95">
         <v>7</v>
       </c>
-      <c r="J43" s="114"/>
-      <c r="K43" s="114"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="114"/>
-      <c r="O43" s="114"/>
-      <c r="P43" s="114"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="114"/>
-      <c r="S43" s="114"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="114"/>
-      <c r="V43" s="114"/>
-      <c r="W43" s="114"/>
-      <c r="X43" s="114"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="95"/>
+      <c r="X43" s="95"/>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
@@ -7832,21 +7831,21 @@
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1"/>
-      <c r="AX43" s="114" t="s">
+      <c r="AX43" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="AY43" s="114"/>
-      <c r="AZ43" s="114"/>
-      <c r="BA43" s="114"/>
-      <c r="BB43" s="114"/>
-      <c r="BC43" s="114"/>
-      <c r="BD43" s="114"/>
-      <c r="BE43" s="114"/>
-      <c r="BJ43" s="114" t="s">
+      <c r="AY43" s="95"/>
+      <c r="AZ43" s="95"/>
+      <c r="BA43" s="95"/>
+      <c r="BB43" s="95"/>
+      <c r="BC43" s="95"/>
+      <c r="BD43" s="95"/>
+      <c r="BE43" s="95"/>
+      <c r="BJ43" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="BK43" s="114"/>
-      <c r="BL43" s="114"/>
+      <c r="BK43" s="95"/>
+      <c r="BL43" s="95"/>
     </row>
     <row r="44" spans="1:221" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
@@ -7855,26 +7854,26 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44"/>
-      <c r="I44" s="114">
+      <c r="I44" s="95">
         <v>9</v>
       </c>
-      <c r="J44" s="114"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="114"/>
-      <c r="M44" s="114" t="s">
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="N44" s="114"/>
-      <c r="O44" s="114"/>
-      <c r="P44" s="114"/>
-      <c r="Q44" s="114"/>
-      <c r="R44" s="114"/>
-      <c r="S44" s="114"/>
-      <c r="T44" s="114"/>
-      <c r="U44" s="114"/>
-      <c r="V44" s="114"/>
-      <c r="W44" s="114"/>
-      <c r="X44" s="114"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="95"/>
+      <c r="X44" s="95"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
@@ -7884,26 +7883,26 @@
       <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
       <c r="AG44" s="1"/>
-      <c r="AH44" s="114" t="s">
+      <c r="AH44" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="AI44" s="114"/>
-      <c r="AJ44" s="114"/>
-      <c r="AK44" s="114"/>
-      <c r="AL44" s="114"/>
-      <c r="AM44" s="114"/>
-      <c r="AN44" s="114"/>
-      <c r="AO44" s="114"/>
-      <c r="AP44" s="114" t="s">
+      <c r="AI44" s="95"/>
+      <c r="AJ44" s="95"/>
+      <c r="AK44" s="95"/>
+      <c r="AL44" s="95"/>
+      <c r="AM44" s="95"/>
+      <c r="AN44" s="95"/>
+      <c r="AO44" s="95"/>
+      <c r="AP44" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="AQ44" s="114"/>
-      <c r="AR44" s="114"/>
-      <c r="AS44" s="114"/>
-      <c r="AT44" s="114"/>
-      <c r="AU44" s="114"/>
-      <c r="AV44" s="114"/>
-      <c r="AW44" s="114"/>
+      <c r="AQ44" s="95"/>
+      <c r="AR44" s="95"/>
+      <c r="AS44" s="95"/>
+      <c r="AT44" s="95"/>
+      <c r="AU44" s="95"/>
+      <c r="AV44" s="95"/>
+      <c r="AW44" s="95"/>
       <c r="AX44" s="56">
         <v>0</v>
       </c>
@@ -7928,17 +7927,17 @@
       <c r="BE44" s="51">
         <v>0</v>
       </c>
-      <c r="BF44" s="114" t="s">
+      <c r="BF44" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="BG44" s="114"/>
-      <c r="BH44" s="114"/>
-      <c r="BI44" s="114"/>
-      <c r="BJ44" s="114">
+      <c r="BG44" s="95"/>
+      <c r="BH44" s="95"/>
+      <c r="BI44" s="95"/>
+      <c r="BJ44" s="95">
         <v>22</v>
       </c>
-      <c r="BK44" s="114"/>
-      <c r="BL44" s="114"/>
+      <c r="BK44" s="95"/>
+      <c r="BL44" s="95"/>
     </row>
     <row r="45" spans="1:221" x14ac:dyDescent="0.3">
       <c r="C45" s="1"/>
@@ -7947,26 +7946,26 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45"/>
-      <c r="I45" s="114">
+      <c r="I45" s="95">
         <v>11</v>
       </c>
-      <c r="J45" s="114"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="114" t="s">
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="N45" s="114"/>
-      <c r="O45" s="114"/>
-      <c r="P45" s="114"/>
-      <c r="Q45" s="114"/>
-      <c r="R45" s="114"/>
-      <c r="S45" s="114"/>
-      <c r="T45" s="114"/>
-      <c r="U45" s="114"/>
-      <c r="V45" s="114"/>
-      <c r="W45" s="114"/>
-      <c r="X45" s="114"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="95"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="95"/>
+      <c r="W45" s="95"/>
+      <c r="X45" s="95"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
@@ -8000,17 +7999,17 @@
       <c r="BE45" s="52">
         <v>0</v>
       </c>
-      <c r="BF45" s="114" t="s">
+      <c r="BF45" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="BG45" s="114"/>
-      <c r="BH45" s="114"/>
-      <c r="BI45" s="114"/>
-      <c r="BJ45" s="114">
+      <c r="BG45" s="95"/>
+      <c r="BH45" s="95"/>
+      <c r="BI45" s="95"/>
+      <c r="BJ45" s="95">
         <v>2</v>
       </c>
-      <c r="BK45" s="114"/>
-      <c r="BL45" s="114"/>
+      <c r="BK45" s="95"/>
+      <c r="BL45" s="95"/>
     </row>
     <row r="46" spans="1:221" x14ac:dyDescent="0.3">
       <c r="C46" s="1"/>
@@ -8019,26 +8018,26 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46"/>
-      <c r="I46" s="114">
+      <c r="I46" s="95">
         <v>13</v>
       </c>
-      <c r="J46" s="114"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="114" t="s">
+      <c r="J46" s="95"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="95"/>
+      <c r="M46" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="N46" s="114"/>
-      <c r="O46" s="114"/>
-      <c r="P46" s="114"/>
-      <c r="Q46" s="114"/>
-      <c r="R46" s="114"/>
-      <c r="S46" s="114"/>
-      <c r="T46" s="114"/>
-      <c r="U46" s="114"/>
-      <c r="V46" s="114"/>
-      <c r="W46" s="114"/>
-      <c r="X46" s="114"/>
+      <c r="N46" s="95"/>
+      <c r="O46" s="95"/>
+      <c r="P46" s="95"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="95"/>
+      <c r="S46" s="95"/>
+      <c r="T46" s="95"/>
+      <c r="U46" s="95"/>
+      <c r="V46" s="95"/>
+      <c r="W46" s="95"/>
+      <c r="X46" s="95"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
@@ -8072,17 +8071,17 @@
       <c r="BE46" s="57">
         <v>0</v>
       </c>
-      <c r="BF46" s="114" t="s">
+      <c r="BF46" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="BG46" s="114"/>
-      <c r="BH46" s="114"/>
-      <c r="BI46" s="114"/>
-      <c r="BJ46" s="114">
+      <c r="BG46" s="95"/>
+      <c r="BH46" s="95"/>
+      <c r="BI46" s="95"/>
+      <c r="BJ46" s="95">
         <v>140</v>
       </c>
-      <c r="BK46" s="114"/>
-      <c r="BL46" s="114"/>
+      <c r="BK46" s="95"/>
+      <c r="BL46" s="95"/>
     </row>
     <row r="47" spans="1:221" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
@@ -8091,26 +8090,26 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47"/>
-      <c r="I47" s="114">
+      <c r="I47" s="95">
         <v>15</v>
       </c>
-      <c r="J47" s="114"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="114" t="s">
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="N47" s="114"/>
-      <c r="O47" s="114"/>
-      <c r="P47" s="114"/>
-      <c r="Q47" s="114"/>
-      <c r="R47" s="114"/>
-      <c r="S47" s="114"/>
-      <c r="T47" s="114"/>
-      <c r="U47" s="114"/>
-      <c r="V47" s="114"/>
-      <c r="W47" s="114"/>
-      <c r="X47" s="114"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="95"/>
+      <c r="U47" s="95"/>
+      <c r="V47" s="95"/>
+      <c r="W47" s="95"/>
+      <c r="X47" s="95"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
@@ -8135,26 +8134,26 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48"/>
-      <c r="I48" s="114">
+      <c r="I48" s="95">
         <v>17</v>
       </c>
-      <c r="J48" s="114"/>
-      <c r="K48" s="114"/>
-      <c r="L48" s="114"/>
-      <c r="M48" s="114" t="s">
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="N48" s="114"/>
-      <c r="O48" s="114"/>
-      <c r="P48" s="114"/>
-      <c r="Q48" s="114"/>
-      <c r="R48" s="114"/>
-      <c r="S48" s="114"/>
-      <c r="T48" s="114"/>
-      <c r="U48" s="114"/>
-      <c r="V48" s="114"/>
-      <c r="W48" s="114"/>
-      <c r="X48" s="114"/>
+      <c r="N48" s="95"/>
+      <c r="O48" s="95"/>
+      <c r="P48" s="95"/>
+      <c r="Q48" s="95"/>
+      <c r="R48" s="95"/>
+      <c r="S48" s="95"/>
+      <c r="T48" s="95"/>
+      <c r="U48" s="95"/>
+      <c r="V48" s="95"/>
+      <c r="W48" s="95"/>
+      <c r="X48" s="95"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
@@ -8253,30 +8252,30 @@
       <c r="AN50" s="12"/>
       <c r="AO50" s="12"/>
       <c r="AP50" s="12"/>
-      <c r="AQ50" s="125"/>
-      <c r="AR50" s="125"/>
-      <c r="AS50" s="125"/>
-      <c r="AT50" s="125"/>
-      <c r="AU50" s="125"/>
-      <c r="AV50" s="125"/>
-      <c r="AW50" s="125"/>
-      <c r="AX50" s="125"/>
-      <c r="AY50" s="125"/>
-      <c r="AZ50" s="125"/>
-      <c r="BA50" s="125"/>
-      <c r="BB50" s="125"/>
-      <c r="BC50" s="125"/>
-      <c r="BD50" s="125"/>
-      <c r="BE50" s="125"/>
-      <c r="BF50" s="125"/>
-      <c r="BG50" s="125"/>
-      <c r="BH50" s="125"/>
-      <c r="BI50" s="125"/>
-      <c r="BJ50" s="125"/>
-      <c r="BK50" s="125"/>
-      <c r="BL50" s="125"/>
-      <c r="BM50" s="125"/>
-      <c r="BN50" s="125"/>
+      <c r="AQ50" s="104"/>
+      <c r="AR50" s="104"/>
+      <c r="AS50" s="104"/>
+      <c r="AT50" s="104"/>
+      <c r="AU50" s="104"/>
+      <c r="AV50" s="104"/>
+      <c r="AW50" s="104"/>
+      <c r="AX50" s="104"/>
+      <c r="AY50" s="104"/>
+      <c r="AZ50" s="104"/>
+      <c r="BA50" s="104"/>
+      <c r="BB50" s="104"/>
+      <c r="BC50" s="104"/>
+      <c r="BD50" s="104"/>
+      <c r="BE50" s="104"/>
+      <c r="BF50" s="104"/>
+      <c r="BG50" s="104"/>
+      <c r="BH50" s="104"/>
+      <c r="BI50" s="104"/>
+      <c r="BJ50" s="104"/>
+      <c r="BK50" s="104"/>
+      <c r="BL50" s="104"/>
+      <c r="BM50" s="104"/>
+      <c r="BN50" s="104"/>
     </row>
     <row r="51" spans="3:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C51" s="1"/>
@@ -8315,46 +8314,46 @@
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
-      <c r="AK51" s="114" t="s">
+      <c r="AK51" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="AL51" s="114"/>
-      <c r="AM51" s="114"/>
-      <c r="AN51" s="114"/>
-      <c r="AO51" s="114"/>
-      <c r="AP51" s="114"/>
-      <c r="AQ51" s="114">
+      <c r="AL51" s="95"/>
+      <c r="AM51" s="95"/>
+      <c r="AN51" s="95"/>
+      <c r="AO51" s="95"/>
+      <c r="AP51" s="95"/>
+      <c r="AQ51" s="95">
         <v>10</v>
       </c>
-      <c r="AR51" s="114"/>
-      <c r="AS51" s="114"/>
-      <c r="AT51" s="114"/>
-      <c r="AU51" s="114"/>
-      <c r="AV51" s="114"/>
-      <c r="AW51" s="114">
+      <c r="AR51" s="95"/>
+      <c r="AS51" s="95"/>
+      <c r="AT51" s="95"/>
+      <c r="AU51" s="95"/>
+      <c r="AV51" s="95"/>
+      <c r="AW51" s="95">
         <v>60</v>
       </c>
-      <c r="AX51" s="114"/>
-      <c r="AY51" s="114"/>
-      <c r="AZ51" s="114"/>
-      <c r="BA51" s="114"/>
-      <c r="BB51" s="114"/>
-      <c r="BC51" s="114">
+      <c r="AX51" s="95"/>
+      <c r="AY51" s="95"/>
+      <c r="AZ51" s="95"/>
+      <c r="BA51" s="95"/>
+      <c r="BB51" s="95"/>
+      <c r="BC51" s="95">
         <v>162</v>
       </c>
-      <c r="BD51" s="114"/>
-      <c r="BE51" s="114"/>
-      <c r="BF51" s="114"/>
-      <c r="BG51" s="114"/>
-      <c r="BH51" s="114"/>
-      <c r="BI51" s="114">
+      <c r="BD51" s="95"/>
+      <c r="BE51" s="95"/>
+      <c r="BF51" s="95"/>
+      <c r="BG51" s="95"/>
+      <c r="BH51" s="95"/>
+      <c r="BI51" s="95">
         <v>255</v>
       </c>
-      <c r="BJ51" s="114"/>
-      <c r="BK51" s="114"/>
-      <c r="BL51" s="114"/>
-      <c r="BM51" s="114"/>
-      <c r="BN51" s="114"/>
+      <c r="BJ51" s="95"/>
+      <c r="BK51" s="95"/>
+      <c r="BL51" s="95"/>
+      <c r="BM51" s="95"/>
+      <c r="BN51" s="95"/>
     </row>
     <row r="52" spans="3:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C52" s="1"/>
@@ -8372,59 +8371,59 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="101" t="s">
+      <c r="R52" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="S52" s="93"/>
-      <c r="T52" s="93"/>
-      <c r="U52" s="93"/>
-      <c r="V52" s="93"/>
-      <c r="W52" s="93"/>
-      <c r="X52" s="93"/>
-      <c r="Y52" s="93"/>
-      <c r="Z52" s="93"/>
-      <c r="AA52" s="93"/>
-      <c r="AB52" s="93"/>
-      <c r="AC52" s="93"/>
-      <c r="AD52" s="93"/>
-      <c r="AE52" s="93"/>
-      <c r="AF52" s="94"/>
+      <c r="S52" s="119"/>
+      <c r="T52" s="119"/>
+      <c r="U52" s="119"/>
+      <c r="V52" s="119"/>
+      <c r="W52" s="119"/>
+      <c r="X52" s="119"/>
+      <c r="Y52" s="119"/>
+      <c r="Z52" s="119"/>
+      <c r="AA52" s="119"/>
+      <c r="AB52" s="119"/>
+      <c r="AC52" s="119"/>
+      <c r="AD52" s="119"/>
+      <c r="AE52" s="119"/>
+      <c r="AF52" s="120"/>
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
-      <c r="AQ52" s="114" t="s">
+      <c r="AQ52" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="AR52" s="114"/>
-      <c r="AS52" s="114"/>
-      <c r="AT52" s="114"/>
-      <c r="AU52" s="114"/>
-      <c r="AV52" s="114"/>
-      <c r="AW52" s="114" t="s">
+      <c r="AR52" s="95"/>
+      <c r="AS52" s="95"/>
+      <c r="AT52" s="95"/>
+      <c r="AU52" s="95"/>
+      <c r="AV52" s="95"/>
+      <c r="AW52" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="AX52" s="114"/>
-      <c r="AY52" s="114"/>
-      <c r="AZ52" s="114"/>
-      <c r="BA52" s="114"/>
-      <c r="BB52" s="114"/>
-      <c r="BC52" s="114" t="s">
+      <c r="AX52" s="95"/>
+      <c r="AY52" s="95"/>
+      <c r="AZ52" s="95"/>
+      <c r="BA52" s="95"/>
+      <c r="BB52" s="95"/>
+      <c r="BC52" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="BD52" s="114"/>
-      <c r="BE52" s="114"/>
-      <c r="BF52" s="114"/>
-      <c r="BG52" s="114"/>
-      <c r="BH52" s="114"/>
-      <c r="BI52" s="114" t="s">
+      <c r="BD52" s="95"/>
+      <c r="BE52" s="95"/>
+      <c r="BF52" s="95"/>
+      <c r="BG52" s="95"/>
+      <c r="BH52" s="95"/>
+      <c r="BI52" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="BJ52" s="114"/>
-      <c r="BK52" s="114"/>
-      <c r="BL52" s="114"/>
-      <c r="BM52" s="114"/>
-      <c r="BN52" s="114"/>
+      <c r="BJ52" s="95"/>
+      <c r="BK52" s="95"/>
+      <c r="BL52" s="95"/>
+      <c r="BM52" s="95"/>
+      <c r="BN52" s="95"/>
     </row>
     <row r="53" spans="3:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C53" s="1"/>
@@ -8442,67 +8441,67 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="R53" s="92" t="s">
+      <c r="R53" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="S53" s="93"/>
-      <c r="T53" s="93"/>
-      <c r="U53" s="93"/>
-      <c r="V53" s="93"/>
-      <c r="W53" s="93"/>
-      <c r="X53" s="93"/>
-      <c r="Y53" s="93"/>
-      <c r="Z53" s="93"/>
-      <c r="AA53" s="93"/>
-      <c r="AB53" s="93"/>
-      <c r="AC53" s="93"/>
-      <c r="AD53" s="93"/>
-      <c r="AE53" s="93"/>
-      <c r="AF53" s="93"/>
-      <c r="AG53" s="93"/>
-      <c r="AH53" s="94"/>
-      <c r="AI53" s="95" t="s">
+      <c r="S53" s="119"/>
+      <c r="T53" s="119"/>
+      <c r="U53" s="119"/>
+      <c r="V53" s="119"/>
+      <c r="W53" s="119"/>
+      <c r="X53" s="119"/>
+      <c r="Y53" s="119"/>
+      <c r="Z53" s="119"/>
+      <c r="AA53" s="119"/>
+      <c r="AB53" s="119"/>
+      <c r="AC53" s="119"/>
+      <c r="AD53" s="119"/>
+      <c r="AE53" s="119"/>
+      <c r="AF53" s="119"/>
+      <c r="AG53" s="119"/>
+      <c r="AH53" s="120"/>
+      <c r="AI53" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="AJ53" s="96"/>
-      <c r="AK53" s="96"/>
-      <c r="AL53" s="96"/>
-      <c r="AM53" s="96"/>
-      <c r="AN53" s="96"/>
-      <c r="AO53" s="96"/>
-      <c r="AP53" s="96"/>
-      <c r="AQ53" s="83" t="s">
+      <c r="AJ53" s="132"/>
+      <c r="AK53" s="132"/>
+      <c r="AL53" s="132"/>
+      <c r="AM53" s="132"/>
+      <c r="AN53" s="132"/>
+      <c r="AO53" s="132"/>
+      <c r="AP53" s="132"/>
+      <c r="AQ53" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="AR53" s="83"/>
-      <c r="AS53" s="83"/>
-      <c r="AT53" s="83"/>
-      <c r="AU53" s="83"/>
-      <c r="AV53" s="83"/>
-      <c r="AW53" s="83" t="s">
+      <c r="AR53" s="105"/>
+      <c r="AS53" s="105"/>
+      <c r="AT53" s="105"/>
+      <c r="AU53" s="105"/>
+      <c r="AV53" s="105"/>
+      <c r="AW53" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="AX53" s="83"/>
-      <c r="AY53" s="83"/>
-      <c r="AZ53" s="83"/>
-      <c r="BA53" s="83"/>
-      <c r="BB53" s="83"/>
-      <c r="BC53" s="83" t="s">
+      <c r="AX53" s="105"/>
+      <c r="AY53" s="105"/>
+      <c r="AZ53" s="105"/>
+      <c r="BA53" s="105"/>
+      <c r="BB53" s="105"/>
+      <c r="BC53" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="BD53" s="83"/>
-      <c r="BE53" s="83"/>
-      <c r="BF53" s="83"/>
-      <c r="BG53" s="83"/>
-      <c r="BH53" s="83"/>
-      <c r="BI53" s="83" t="s">
+      <c r="BD53" s="105"/>
+      <c r="BE53" s="105"/>
+      <c r="BF53" s="105"/>
+      <c r="BG53" s="105"/>
+      <c r="BH53" s="105"/>
+      <c r="BI53" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="BJ53" s="83"/>
-      <c r="BK53" s="83"/>
-      <c r="BL53" s="83"/>
-      <c r="BM53" s="83"/>
-      <c r="BN53" s="83"/>
+      <c r="BJ53" s="105"/>
+      <c r="BK53" s="105"/>
+      <c r="BL53" s="105"/>
+      <c r="BM53" s="105"/>
+      <c r="BN53" s="105"/>
     </row>
     <row r="54" spans="3:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C54" s="1"/>
@@ -8520,67 +8519,67 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-      <c r="R54" s="101" t="s">
+      <c r="R54" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="S54" s="93"/>
-      <c r="T54" s="93"/>
-      <c r="U54" s="93"/>
-      <c r="V54" s="93"/>
-      <c r="W54" s="93"/>
-      <c r="X54" s="93"/>
-      <c r="Y54" s="93"/>
-      <c r="Z54" s="93"/>
-      <c r="AA54" s="93"/>
-      <c r="AB54" s="93"/>
-      <c r="AC54" s="93"/>
-      <c r="AD54" s="93"/>
-      <c r="AE54" s="93"/>
-      <c r="AF54" s="94"/>
-      <c r="AG54" s="126" t="s">
+      <c r="S54" s="119"/>
+      <c r="T54" s="119"/>
+      <c r="U54" s="119"/>
+      <c r="V54" s="119"/>
+      <c r="W54" s="119"/>
+      <c r="X54" s="119"/>
+      <c r="Y54" s="119"/>
+      <c r="Z54" s="119"/>
+      <c r="AA54" s="119"/>
+      <c r="AB54" s="119"/>
+      <c r="AC54" s="119"/>
+      <c r="AD54" s="119"/>
+      <c r="AE54" s="119"/>
+      <c r="AF54" s="120"/>
+      <c r="AG54" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="AH54" s="127"/>
-      <c r="AI54" s="128"/>
-      <c r="AJ54" s="128"/>
-      <c r="AK54" s="128"/>
-      <c r="AL54" s="128"/>
-      <c r="AM54" s="129"/>
-      <c r="AN54" s="129"/>
-      <c r="AO54" s="129"/>
-      <c r="AP54" s="129"/>
-      <c r="AQ54" s="114">
+      <c r="AH54" s="107"/>
+      <c r="AI54" s="108"/>
+      <c r="AJ54" s="108"/>
+      <c r="AK54" s="108"/>
+      <c r="AL54" s="108"/>
+      <c r="AM54" s="109"/>
+      <c r="AN54" s="109"/>
+      <c r="AO54" s="109"/>
+      <c r="AP54" s="109"/>
+      <c r="AQ54" s="95">
         <v>3</v>
       </c>
-      <c r="AR54" s="114"/>
-      <c r="AS54" s="114"/>
-      <c r="AT54" s="114"/>
-      <c r="AU54" s="114"/>
-      <c r="AV54" s="114"/>
-      <c r="AW54" s="114">
+      <c r="AR54" s="95"/>
+      <c r="AS54" s="95"/>
+      <c r="AT54" s="95"/>
+      <c r="AU54" s="95"/>
+      <c r="AV54" s="95"/>
+      <c r="AW54" s="95">
         <v>5</v>
       </c>
-      <c r="AX54" s="114"/>
-      <c r="AY54" s="114"/>
-      <c r="AZ54" s="114"/>
-      <c r="BA54" s="114"/>
-      <c r="BB54" s="114"/>
-      <c r="BC54" s="114">
+      <c r="AX54" s="95"/>
+      <c r="AY54" s="95"/>
+      <c r="AZ54" s="95"/>
+      <c r="BA54" s="95"/>
+      <c r="BB54" s="95"/>
+      <c r="BC54" s="95">
         <v>7</v>
       </c>
-      <c r="BD54" s="114"/>
-      <c r="BE54" s="114"/>
-      <c r="BF54" s="114"/>
-      <c r="BG54" s="114"/>
-      <c r="BH54" s="114"/>
-      <c r="BI54" s="114">
+      <c r="BD54" s="95"/>
+      <c r="BE54" s="95"/>
+      <c r="BF54" s="95"/>
+      <c r="BG54" s="95"/>
+      <c r="BH54" s="95"/>
+      <c r="BI54" s="95">
         <v>8</v>
       </c>
-      <c r="BJ54" s="114"/>
-      <c r="BK54" s="114"/>
-      <c r="BL54" s="114"/>
-      <c r="BM54" s="114"/>
-      <c r="BN54" s="114"/>
+      <c r="BJ54" s="95"/>
+      <c r="BK54" s="95"/>
+      <c r="BL54" s="95"/>
+      <c r="BM54" s="95"/>
+      <c r="BN54" s="95"/>
     </row>
     <row r="55" spans="3:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C55" s="1"/>
@@ -8598,67 +8597,67 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="R55" s="123" t="s">
+      <c r="R55" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="S55" s="124"/>
-      <c r="T55" s="124"/>
-      <c r="U55" s="124"/>
-      <c r="V55" s="124"/>
-      <c r="W55" s="124"/>
-      <c r="X55" s="124"/>
-      <c r="Y55" s="124"/>
-      <c r="Z55" s="124"/>
-      <c r="AA55" s="124"/>
-      <c r="AB55" s="124"/>
-      <c r="AC55" s="120"/>
-      <c r="AD55" s="120"/>
-      <c r="AE55" s="120"/>
-      <c r="AF55" s="120"/>
-      <c r="AG55" s="93"/>
-      <c r="AH55" s="93"/>
-      <c r="AI55" s="93"/>
-      <c r="AJ55" s="93"/>
-      <c r="AK55" s="93"/>
-      <c r="AL55" s="94"/>
-      <c r="AM55" s="99" t="s">
+      <c r="S55" s="126"/>
+      <c r="T55" s="126"/>
+      <c r="U55" s="126"/>
+      <c r="V55" s="126"/>
+      <c r="W55" s="126"/>
+      <c r="X55" s="126"/>
+      <c r="Y55" s="126"/>
+      <c r="Z55" s="126"/>
+      <c r="AA55" s="126"/>
+      <c r="AB55" s="126"/>
+      <c r="AC55" s="122"/>
+      <c r="AD55" s="122"/>
+      <c r="AE55" s="122"/>
+      <c r="AF55" s="122"/>
+      <c r="AG55" s="119"/>
+      <c r="AH55" s="119"/>
+      <c r="AI55" s="119"/>
+      <c r="AJ55" s="119"/>
+      <c r="AK55" s="119"/>
+      <c r="AL55" s="120"/>
+      <c r="AM55" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="AN55" s="100"/>
-      <c r="AO55" s="100"/>
-      <c r="AP55" s="100"/>
-      <c r="AQ55" s="114">
+      <c r="AN55" s="136"/>
+      <c r="AO55" s="136"/>
+      <c r="AP55" s="136"/>
+      <c r="AQ55" s="95">
         <v>7</v>
       </c>
-      <c r="AR55" s="114"/>
-      <c r="AS55" s="114"/>
-      <c r="AT55" s="114"/>
-      <c r="AU55" s="114"/>
-      <c r="AV55" s="114"/>
-      <c r="AW55" s="114">
+      <c r="AR55" s="95"/>
+      <c r="AS55" s="95"/>
+      <c r="AT55" s="95"/>
+      <c r="AU55" s="95"/>
+      <c r="AV55" s="95"/>
+      <c r="AW55" s="95">
         <v>11</v>
       </c>
-      <c r="AX55" s="114"/>
-      <c r="AY55" s="114"/>
-      <c r="AZ55" s="114"/>
-      <c r="BA55" s="114"/>
-      <c r="BB55" s="114"/>
-      <c r="BC55" s="114">
+      <c r="AX55" s="95"/>
+      <c r="AY55" s="95"/>
+      <c r="AZ55" s="95"/>
+      <c r="BA55" s="95"/>
+      <c r="BB55" s="95"/>
+      <c r="BC55" s="95">
         <v>15</v>
       </c>
-      <c r="BD55" s="114"/>
-      <c r="BE55" s="114"/>
-      <c r="BF55" s="114"/>
-      <c r="BG55" s="114"/>
-      <c r="BH55" s="114"/>
-      <c r="BI55" s="114">
+      <c r="BD55" s="95"/>
+      <c r="BE55" s="95"/>
+      <c r="BF55" s="95"/>
+      <c r="BG55" s="95"/>
+      <c r="BH55" s="95"/>
+      <c r="BI55" s="95">
         <v>17</v>
       </c>
-      <c r="BJ55" s="114"/>
-      <c r="BK55" s="114"/>
-      <c r="BL55" s="114"/>
-      <c r="BM55" s="114"/>
-      <c r="BN55" s="114"/>
+      <c r="BJ55" s="95"/>
+      <c r="BK55" s="95"/>
+      <c r="BL55" s="95"/>
+      <c r="BM55" s="95"/>
+      <c r="BN55" s="95"/>
     </row>
     <row r="56" spans="3:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C56" s="1"/>
@@ -8676,19 +8675,19 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="R56" s="111" t="s">
+      <c r="R56" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="S56" s="112"/>
-      <c r="T56" s="112"/>
-      <c r="U56" s="112"/>
-      <c r="V56" s="112"/>
-      <c r="W56" s="112"/>
-      <c r="X56" s="112"/>
-      <c r="Y56" s="112"/>
-      <c r="Z56" s="112"/>
-      <c r="AA56" s="112"/>
-      <c r="AB56" s="113"/>
+      <c r="S56" s="147"/>
+      <c r="T56" s="147"/>
+      <c r="U56" s="147"/>
+      <c r="V56" s="147"/>
+      <c r="W56" s="147"/>
+      <c r="X56" s="147"/>
+      <c r="Y56" s="147"/>
+      <c r="Z56" s="147"/>
+      <c r="AA56" s="147"/>
+      <c r="AB56" s="148"/>
       <c r="AC56" s="73"/>
       <c r="AD56" s="73"/>
       <c r="AE56" s="73"/>
@@ -8696,47 +8695,47 @@
       <c r="AG56" s="73"/>
       <c r="AH56" s="73"/>
       <c r="AI56" s="74"/>
-      <c r="AJ56" s="97" t="s">
+      <c r="AJ56" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="AK56" s="97"/>
-      <c r="AL56" s="97"/>
-      <c r="AM56" s="97"/>
-      <c r="AN56" s="97"/>
-      <c r="AO56" s="97"/>
-      <c r="AP56" s="98"/>
-      <c r="AQ56" s="121" t="s">
+      <c r="AK56" s="133"/>
+      <c r="AL56" s="133"/>
+      <c r="AM56" s="133"/>
+      <c r="AN56" s="133"/>
+      <c r="AO56" s="133"/>
+      <c r="AP56" s="134"/>
+      <c r="AQ56" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="AR56" s="122"/>
-      <c r="AS56" s="122"/>
-      <c r="AT56" s="122"/>
-      <c r="AU56" s="122"/>
-      <c r="AV56" s="122"/>
-      <c r="AW56" s="116" t="s">
+      <c r="AR56" s="124"/>
+      <c r="AS56" s="124"/>
+      <c r="AT56" s="124"/>
+      <c r="AU56" s="124"/>
+      <c r="AV56" s="124"/>
+      <c r="AW56" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="AX56" s="117"/>
-      <c r="AY56" s="117"/>
-      <c r="AZ56" s="117"/>
-      <c r="BA56" s="117"/>
-      <c r="BB56" s="117"/>
-      <c r="BC56" s="118" t="s">
+      <c r="AX56" s="112"/>
+      <c r="AY56" s="112"/>
+      <c r="AZ56" s="112"/>
+      <c r="BA56" s="112"/>
+      <c r="BB56" s="112"/>
+      <c r="BC56" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="BD56" s="118"/>
-      <c r="BE56" s="118"/>
-      <c r="BF56" s="118"/>
-      <c r="BG56" s="118"/>
-      <c r="BH56" s="118"/>
-      <c r="BI56" s="85" t="s">
+      <c r="BD56" s="113"/>
+      <c r="BE56" s="113"/>
+      <c r="BF56" s="113"/>
+      <c r="BG56" s="113"/>
+      <c r="BH56" s="113"/>
+      <c r="BI56" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="BJ56" s="86"/>
-      <c r="BK56" s="86"/>
-      <c r="BL56" s="86"/>
-      <c r="BM56" s="86"/>
-      <c r="BN56" s="86"/>
+      <c r="BJ56" s="115"/>
+      <c r="BK56" s="115"/>
+      <c r="BL56" s="115"/>
+      <c r="BM56" s="115"/>
+      <c r="BN56" s="115"/>
     </row>
     <row r="57" spans="3:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C57" s="1"/>
@@ -8745,75 +8744,75 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57"/>
-      <c r="L57" s="87" t="s">
+      <c r="L57" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="M57" s="87"/>
-      <c r="N57" s="87"/>
-      <c r="O57" s="87"/>
-      <c r="P57" s="87"/>
-      <c r="Q57" s="89"/>
-      <c r="R57" s="119" t="s">
+      <c r="M57" s="116"/>
+      <c r="N57" s="116"/>
+      <c r="O57" s="116"/>
+      <c r="P57" s="116"/>
+      <c r="Q57" s="117"/>
+      <c r="R57" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="S57" s="120"/>
-      <c r="T57" s="120"/>
-      <c r="U57" s="120"/>
-      <c r="V57" s="120"/>
-      <c r="W57" s="120"/>
-      <c r="X57" s="120"/>
-      <c r="Y57" s="120"/>
-      <c r="Z57" s="120"/>
-      <c r="AA57" s="120"/>
-      <c r="AB57" s="120"/>
-      <c r="AC57" s="93"/>
-      <c r="AD57" s="93"/>
-      <c r="AE57" s="93"/>
-      <c r="AF57" s="94"/>
-      <c r="AG57" s="90" t="s">
+      <c r="S57" s="122"/>
+      <c r="T57" s="122"/>
+      <c r="U57" s="122"/>
+      <c r="V57" s="122"/>
+      <c r="W57" s="122"/>
+      <c r="X57" s="122"/>
+      <c r="Y57" s="122"/>
+      <c r="Z57" s="122"/>
+      <c r="AA57" s="122"/>
+      <c r="AB57" s="122"/>
+      <c r="AC57" s="119"/>
+      <c r="AD57" s="119"/>
+      <c r="AE57" s="119"/>
+      <c r="AF57" s="120"/>
+      <c r="AG57" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="AH57" s="91"/>
-      <c r="AI57" s="91"/>
-      <c r="AJ57" s="91"/>
-      <c r="AK57" s="91"/>
-      <c r="AL57" s="91"/>
-      <c r="AM57" s="91"/>
-      <c r="AN57" s="91"/>
-      <c r="AO57" s="91"/>
-      <c r="AP57" s="91"/>
-      <c r="AQ57" s="115" t="s">
+      <c r="AH57" s="129"/>
+      <c r="AI57" s="129"/>
+      <c r="AJ57" s="129"/>
+      <c r="AK57" s="129"/>
+      <c r="AL57" s="129"/>
+      <c r="AM57" s="129"/>
+      <c r="AN57" s="129"/>
+      <c r="AO57" s="129"/>
+      <c r="AP57" s="129"/>
+      <c r="AQ57" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="AR57" s="114"/>
-      <c r="AS57" s="114"/>
-      <c r="AT57" s="114"/>
-      <c r="AU57" s="114"/>
-      <c r="AV57" s="114"/>
-      <c r="AW57" s="84" t="s">
+      <c r="AR57" s="95"/>
+      <c r="AS57" s="95"/>
+      <c r="AT57" s="95"/>
+      <c r="AU57" s="95"/>
+      <c r="AV57" s="95"/>
+      <c r="AW57" s="149" t="s">
         <v>57</v>
       </c>
-      <c r="AX57" s="84"/>
-      <c r="AY57" s="84"/>
-      <c r="AZ57" s="84"/>
-      <c r="BA57" s="84"/>
-      <c r="BB57" s="84"/>
-      <c r="BC57" s="84" t="s">
+      <c r="AX57" s="149"/>
+      <c r="AY57" s="149"/>
+      <c r="AZ57" s="149"/>
+      <c r="BA57" s="149"/>
+      <c r="BB57" s="149"/>
+      <c r="BC57" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="BD57" s="84"/>
-      <c r="BE57" s="84"/>
-      <c r="BF57" s="84"/>
-      <c r="BG57" s="84"/>
-      <c r="BH57" s="84"/>
-      <c r="BI57" s="85" t="s">
+      <c r="BD57" s="149"/>
+      <c r="BE57" s="149"/>
+      <c r="BF57" s="149"/>
+      <c r="BG57" s="149"/>
+      <c r="BH57" s="149"/>
+      <c r="BI57" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="BJ57" s="86"/>
-      <c r="BK57" s="86"/>
-      <c r="BL57" s="86"/>
-      <c r="BM57" s="86"/>
-      <c r="BN57" s="86"/>
+      <c r="BJ57" s="115"/>
+      <c r="BK57" s="115"/>
+      <c r="BL57" s="115"/>
+      <c r="BM57" s="115"/>
+      <c r="BN57" s="115"/>
     </row>
     <row r="58" spans="3:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C58" s="1"/>
@@ -8823,57 +8822,57 @@
       <c r="G58" s="1"/>
       <c r="H58"/>
       <c r="K58" s="75"/>
-      <c r="L58" s="87" t="s">
+      <c r="L58" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="M58" s="87"/>
-      <c r="N58" s="87"/>
-      <c r="O58" s="87"/>
-      <c r="P58" s="87"/>
-      <c r="Q58" s="89"/>
-      <c r="R58" s="101" t="s">
+      <c r="M58" s="116"/>
+      <c r="N58" s="116"/>
+      <c r="O58" s="116"/>
+      <c r="P58" s="116"/>
+      <c r="Q58" s="117"/>
+      <c r="R58" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="S58" s="93"/>
-      <c r="T58" s="93"/>
-      <c r="U58" s="93"/>
-      <c r="V58" s="93"/>
-      <c r="W58" s="93"/>
-      <c r="X58" s="93"/>
-      <c r="Y58" s="93"/>
-      <c r="Z58" s="93"/>
-      <c r="AA58" s="93"/>
-      <c r="AB58" s="93"/>
-      <c r="AC58" s="93"/>
-      <c r="AD58" s="93"/>
-      <c r="AE58" s="93"/>
-      <c r="AF58" s="94"/>
+      <c r="S58" s="119"/>
+      <c r="T58" s="119"/>
+      <c r="U58" s="119"/>
+      <c r="V58" s="119"/>
+      <c r="W58" s="119"/>
+      <c r="X58" s="119"/>
+      <c r="Y58" s="119"/>
+      <c r="Z58" s="119"/>
+      <c r="AA58" s="119"/>
+      <c r="AB58" s="119"/>
+      <c r="AC58" s="119"/>
+      <c r="AD58" s="119"/>
+      <c r="AE58" s="119"/>
+      <c r="AF58" s="120"/>
       <c r="AG58" s="48"/>
       <c r="AH58" s="48"/>
-      <c r="AW58" s="83" t="s">
+      <c r="AW58" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="AX58" s="83"/>
-      <c r="AY58" s="83"/>
-      <c r="AZ58" s="83"/>
-      <c r="BA58" s="83"/>
-      <c r="BB58" s="83"/>
-      <c r="BC58" s="83" t="s">
+      <c r="AX58" s="105"/>
+      <c r="AY58" s="105"/>
+      <c r="AZ58" s="105"/>
+      <c r="BA58" s="105"/>
+      <c r="BB58" s="105"/>
+      <c r="BC58" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="BD58" s="83"/>
-      <c r="BE58" s="83"/>
-      <c r="BF58" s="83"/>
-      <c r="BG58" s="83"/>
-      <c r="BH58" s="83"/>
-      <c r="BI58" s="83" t="s">
+      <c r="BD58" s="105"/>
+      <c r="BE58" s="105"/>
+      <c r="BF58" s="105"/>
+      <c r="BG58" s="105"/>
+      <c r="BH58" s="105"/>
+      <c r="BI58" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="BJ58" s="83"/>
-      <c r="BK58" s="83"/>
-      <c r="BL58" s="83"/>
-      <c r="BM58" s="83"/>
-      <c r="BN58" s="83"/>
+      <c r="BJ58" s="105"/>
+      <c r="BK58" s="105"/>
+      <c r="BL58" s="105"/>
+      <c r="BM58" s="105"/>
+      <c r="BN58" s="105"/>
     </row>
     <row r="59" spans="3:66" x14ac:dyDescent="0.3">
       <c r="C59" s="1"/>
@@ -8885,14 +8884,14 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="87" t="s">
+      <c r="L59" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="M59" s="87"/>
-      <c r="N59" s="87"/>
-      <c r="O59" s="87"/>
-      <c r="P59" s="87"/>
-      <c r="Q59" s="88"/>
+      <c r="M59" s="116"/>
+      <c r="N59" s="116"/>
+      <c r="O59" s="116"/>
+      <c r="P59" s="116"/>
+      <c r="Q59" s="127"/>
       <c r="R59" s="43"/>
       <c r="AG59" s="48"/>
       <c r="AH59" s="48"/>
@@ -8910,30 +8909,30 @@
       <c r="AT59" s="48"/>
       <c r="AU59" s="48"/>
       <c r="AV59" s="48"/>
-      <c r="AW59" s="83" t="s">
+      <c r="AW59" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="AX59" s="83"/>
-      <c r="AY59" s="83"/>
-      <c r="AZ59" s="83"/>
-      <c r="BA59" s="83"/>
-      <c r="BB59" s="83"/>
-      <c r="BC59" s="83" t="s">
+      <c r="AX59" s="105"/>
+      <c r="AY59" s="105"/>
+      <c r="AZ59" s="105"/>
+      <c r="BA59" s="105"/>
+      <c r="BB59" s="105"/>
+      <c r="BC59" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="BD59" s="83"/>
-      <c r="BE59" s="83"/>
-      <c r="BF59" s="83"/>
-      <c r="BG59" s="83"/>
-      <c r="BH59" s="83"/>
-      <c r="BI59" s="83" t="s">
+      <c r="BD59" s="105"/>
+      <c r="BE59" s="105"/>
+      <c r="BF59" s="105"/>
+      <c r="BG59" s="105"/>
+      <c r="BH59" s="105"/>
+      <c r="BI59" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="BJ59" s="83"/>
-      <c r="BK59" s="83"/>
-      <c r="BL59" s="83"/>
-      <c r="BM59" s="83"/>
-      <c r="BN59" s="83"/>
+      <c r="BJ59" s="105"/>
+      <c r="BK59" s="105"/>
+      <c r="BL59" s="105"/>
+      <c r="BM59" s="105"/>
+      <c r="BN59" s="105"/>
     </row>
     <row r="60" spans="3:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C60" s="1"/>
@@ -8977,14 +8976,14 @@
       <c r="BF60" s="48"/>
       <c r="BG60" s="48"/>
       <c r="BH60" s="48"/>
-      <c r="BI60" s="83" t="s">
+      <c r="BI60" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="BJ60" s="83"/>
-      <c r="BK60" s="83"/>
-      <c r="BL60" s="83"/>
-      <c r="BM60" s="83"/>
-      <c r="BN60" s="83"/>
+      <c r="BJ60" s="105"/>
+      <c r="BK60" s="105"/>
+      <c r="BL60" s="105"/>
+      <c r="BM60" s="105"/>
+      <c r="BN60" s="105"/>
     </row>
     <row r="61" spans="3:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C61" s="1"/>
@@ -9000,26 +8999,26 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="R61" s="105" t="s">
+      <c r="R61" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="S61" s="106"/>
-      <c r="T61" s="106"/>
-      <c r="U61" s="106"/>
-      <c r="V61" s="106"/>
-      <c r="W61" s="106"/>
-      <c r="X61" s="106"/>
-      <c r="Y61" s="106"/>
-      <c r="Z61" s="106"/>
-      <c r="AA61" s="106"/>
-      <c r="AB61" s="106"/>
-      <c r="AC61" s="106"/>
-      <c r="AD61" s="106"/>
-      <c r="AE61" s="106"/>
-      <c r="AF61" s="106"/>
-      <c r="AG61" s="106"/>
-      <c r="AH61" s="106"/>
-      <c r="AI61" s="107"/>
+      <c r="S61" s="141"/>
+      <c r="T61" s="141"/>
+      <c r="U61" s="141"/>
+      <c r="V61" s="141"/>
+      <c r="W61" s="141"/>
+      <c r="X61" s="141"/>
+      <c r="Y61" s="141"/>
+      <c r="Z61" s="141"/>
+      <c r="AA61" s="141"/>
+      <c r="AB61" s="141"/>
+      <c r="AC61" s="141"/>
+      <c r="AD61" s="141"/>
+      <c r="AE61" s="141"/>
+      <c r="AF61" s="141"/>
+      <c r="AG61" s="141"/>
+      <c r="AH61" s="141"/>
+      <c r="AI61" s="142"/>
       <c r="AJ61" s="48"/>
       <c r="AK61" s="46"/>
       <c r="AL61" s="46"/>
@@ -9066,23 +9065,23 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-      <c r="R62" s="108" t="s">
+      <c r="R62" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="S62" s="109"/>
-      <c r="T62" s="109"/>
-      <c r="U62" s="109"/>
-      <c r="V62" s="109"/>
-      <c r="W62" s="109"/>
-      <c r="X62" s="109"/>
-      <c r="Y62" s="109"/>
-      <c r="Z62" s="109"/>
-      <c r="AA62" s="109"/>
-      <c r="AB62" s="109"/>
-      <c r="AC62" s="109"/>
-      <c r="AD62" s="109"/>
-      <c r="AE62" s="109"/>
-      <c r="AF62" s="110"/>
+      <c r="S62" s="144"/>
+      <c r="T62" s="144"/>
+      <c r="U62" s="144"/>
+      <c r="V62" s="144"/>
+      <c r="W62" s="144"/>
+      <c r="X62" s="144"/>
+      <c r="Y62" s="144"/>
+      <c r="Z62" s="144"/>
+      <c r="AA62" s="144"/>
+      <c r="AB62" s="144"/>
+      <c r="AC62" s="144"/>
+      <c r="AD62" s="144"/>
+      <c r="AE62" s="144"/>
+      <c r="AF62" s="145"/>
       <c r="AG62" s="48"/>
       <c r="AH62" s="48"/>
       <c r="AI62" s="48"/>
@@ -9132,23 +9131,23 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="R63" s="102" t="s">
+      <c r="R63" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="S63" s="103"/>
-      <c r="T63" s="103"/>
-      <c r="U63" s="103"/>
-      <c r="V63" s="103"/>
-      <c r="W63" s="103"/>
-      <c r="X63" s="103"/>
-      <c r="Y63" s="103"/>
-      <c r="Z63" s="103"/>
-      <c r="AA63" s="103"/>
-      <c r="AB63" s="103"/>
-      <c r="AC63" s="103"/>
-      <c r="AD63" s="103"/>
-      <c r="AE63" s="103"/>
-      <c r="AF63" s="104"/>
+      <c r="S63" s="138"/>
+      <c r="T63" s="138"/>
+      <c r="U63" s="138"/>
+      <c r="V63" s="138"/>
+      <c r="W63" s="138"/>
+      <c r="X63" s="138"/>
+      <c r="Y63" s="138"/>
+      <c r="Z63" s="138"/>
+      <c r="AA63" s="138"/>
+      <c r="AB63" s="138"/>
+      <c r="AC63" s="138"/>
+      <c r="AD63" s="138"/>
+      <c r="AE63" s="138"/>
+      <c r="AF63" s="139"/>
     </row>
     <row r="64" spans="3:66" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C64" s="1"/>
@@ -9727,7 +9726,7 @@
       </c>
     </row>
     <row r="73" spans="1:132" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="141">
+      <c r="B73" s="85">
         <v>0</v>
       </c>
       <c r="C73" s="66">
@@ -9751,7 +9750,7 @@
       <c r="I73" s="67">
         <v>1</v>
       </c>
-      <c r="J73" s="141">
+      <c r="J73" s="85">
         <v>0</v>
       </c>
       <c r="K73" s="66">
@@ -9823,7 +9822,7 @@
       <c r="AG73" s="67">
         <v>0</v>
       </c>
-      <c r="AH73" s="141">
+      <c r="AH73" s="85">
         <v>0</v>
       </c>
       <c r="AI73" s="66">
@@ -9847,7 +9846,7 @@
       <c r="AO73" s="67">
         <v>1</v>
       </c>
-      <c r="AP73" s="141">
+      <c r="AP73" s="85">
         <v>0</v>
       </c>
       <c r="AQ73" s="66">
@@ -9909,86 +9908,86 @@
       </c>
     </row>
     <row r="74" spans="1:132" x14ac:dyDescent="0.3">
-      <c r="B74" s="143">
-        <v>1</v>
-      </c>
-      <c r="C74" s="144"/>
-      <c r="D74" s="144"/>
-      <c r="E74" s="144"/>
-      <c r="F74" s="144"/>
-      <c r="G74" s="144"/>
-      <c r="H74" s="144"/>
-      <c r="I74" s="145"/>
-      <c r="J74" s="143">
+      <c r="B74" s="91">
+        <v>1</v>
+      </c>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="93"/>
+      <c r="J74" s="91">
         <v>70</v>
       </c>
-      <c r="K74" s="144"/>
-      <c r="L74" s="144"/>
-      <c r="M74" s="144"/>
-      <c r="N74" s="144"/>
-      <c r="O74" s="144"/>
-      <c r="P74" s="144"/>
-      <c r="Q74" s="145"/>
-      <c r="R74" s="143">
+      <c r="K74" s="92"/>
+      <c r="L74" s="92"/>
+      <c r="M74" s="92"/>
+      <c r="N74" s="92"/>
+      <c r="O74" s="92"/>
+      <c r="P74" s="92"/>
+      <c r="Q74" s="93"/>
+      <c r="R74" s="91">
         <v>2</v>
       </c>
-      <c r="S74" s="144"/>
-      <c r="T74" s="144"/>
-      <c r="U74" s="144"/>
-      <c r="V74" s="144"/>
-      <c r="W74" s="144"/>
-      <c r="X74" s="144"/>
-      <c r="Y74" s="145"/>
-      <c r="Z74" s="143">
-        <v>1</v>
-      </c>
-      <c r="AA74" s="144"/>
-      <c r="AB74" s="144"/>
-      <c r="AC74" s="144"/>
-      <c r="AD74" s="144"/>
-      <c r="AE74" s="144"/>
-      <c r="AF74" s="144"/>
-      <c r="AG74" s="145"/>
-      <c r="AH74" s="143">
-        <v>1</v>
-      </c>
-      <c r="AI74" s="144"/>
-      <c r="AJ74" s="144"/>
-      <c r="AK74" s="144"/>
-      <c r="AL74" s="144"/>
-      <c r="AM74" s="144"/>
-      <c r="AN74" s="144"/>
-      <c r="AO74" s="145"/>
-      <c r="AP74" s="143">
-        <v>1</v>
-      </c>
-      <c r="AQ74" s="144"/>
-      <c r="AR74" s="144"/>
-      <c r="AS74" s="144"/>
-      <c r="AT74" s="144"/>
-      <c r="AU74" s="144"/>
-      <c r="AV74" s="144"/>
-      <c r="AW74" s="145"/>
-      <c r="AX74" s="143">
-        <v>1</v>
-      </c>
-      <c r="AY74" s="144"/>
-      <c r="AZ74" s="144"/>
-      <c r="BA74" s="144"/>
-      <c r="BB74" s="144"/>
-      <c r="BC74" s="144"/>
-      <c r="BD74" s="144"/>
-      <c r="BE74" s="145"/>
-      <c r="BF74" s="143">
-        <v>1</v>
-      </c>
-      <c r="BG74" s="144"/>
-      <c r="BH74" s="144"/>
-      <c r="BI74" s="144"/>
-      <c r="BJ74" s="144"/>
-      <c r="BK74" s="144"/>
-      <c r="BL74" s="144"/>
-      <c r="BM74" s="145"/>
+      <c r="S74" s="92"/>
+      <c r="T74" s="92"/>
+      <c r="U74" s="92"/>
+      <c r="V74" s="92"/>
+      <c r="W74" s="92"/>
+      <c r="X74" s="92"/>
+      <c r="Y74" s="93"/>
+      <c r="Z74" s="91">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="92"/>
+      <c r="AB74" s="92"/>
+      <c r="AC74" s="92"/>
+      <c r="AD74" s="92"/>
+      <c r="AE74" s="92"/>
+      <c r="AF74" s="92"/>
+      <c r="AG74" s="93"/>
+      <c r="AH74" s="91">
+        <v>1</v>
+      </c>
+      <c r="AI74" s="92"/>
+      <c r="AJ74" s="92"/>
+      <c r="AK74" s="92"/>
+      <c r="AL74" s="92"/>
+      <c r="AM74" s="92"/>
+      <c r="AN74" s="92"/>
+      <c r="AO74" s="93"/>
+      <c r="AP74" s="91">
+        <v>1</v>
+      </c>
+      <c r="AQ74" s="92"/>
+      <c r="AR74" s="92"/>
+      <c r="AS74" s="92"/>
+      <c r="AT74" s="92"/>
+      <c r="AU74" s="92"/>
+      <c r="AV74" s="92"/>
+      <c r="AW74" s="93"/>
+      <c r="AX74" s="91">
+        <v>1</v>
+      </c>
+      <c r="AY74" s="92"/>
+      <c r="AZ74" s="92"/>
+      <c r="BA74" s="92"/>
+      <c r="BB74" s="92"/>
+      <c r="BC74" s="92"/>
+      <c r="BD74" s="92"/>
+      <c r="BE74" s="93"/>
+      <c r="BF74" s="91">
+        <v>1</v>
+      </c>
+      <c r="BG74" s="92"/>
+      <c r="BH74" s="92"/>
+      <c r="BI74" s="92"/>
+      <c r="BJ74" s="92"/>
+      <c r="BK74" s="92"/>
+      <c r="BL74" s="92"/>
+      <c r="BM74" s="93"/>
     </row>
     <row r="75" spans="1:132" x14ac:dyDescent="0.3">
       <c r="C75" s="1"/>
@@ -10054,172 +10053,172 @@
       <c r="G78" s="82">
         <v>0</v>
       </c>
-      <c r="H78" s="146">
-        <v>1</v>
-      </c>
-      <c r="I78" s="147">
-        <v>1</v>
-      </c>
-      <c r="J78" s="147">
-        <v>0</v>
-      </c>
-      <c r="K78" s="147">
-        <v>0</v>
-      </c>
-      <c r="L78" s="149">
-        <v>1</v>
-      </c>
-      <c r="M78" s="147">
-        <v>0</v>
-      </c>
-      <c r="N78" s="147">
-        <v>1</v>
-      </c>
-      <c r="O78" s="140">
-        <v>0</v>
-      </c>
-      <c r="P78" s="142">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="139">
-        <v>0</v>
-      </c>
-      <c r="R78" s="139">
-        <v>0</v>
-      </c>
-      <c r="S78" s="139">
-        <v>0</v>
-      </c>
-      <c r="T78" s="139">
-        <v>0</v>
-      </c>
-      <c r="U78" s="139">
-        <v>1</v>
-      </c>
-      <c r="V78" s="139">
-        <v>1</v>
-      </c>
-      <c r="W78" s="140">
-        <v>0</v>
-      </c>
-      <c r="X78" s="142">
-        <v>1</v>
-      </c>
-      <c r="Y78" s="139">
-        <v>0</v>
-      </c>
-      <c r="Z78" s="139">
-        <v>0</v>
-      </c>
-      <c r="AA78" s="139">
-        <v>0</v>
-      </c>
-      <c r="AB78" s="147">
-        <v>0</v>
-      </c>
-      <c r="AC78" s="147">
-        <v>0</v>
-      </c>
-      <c r="AD78" s="147">
-        <v>0</v>
-      </c>
-      <c r="AE78" s="148">
-        <v>0</v>
-      </c>
-      <c r="AF78" s="146">
-        <v>0</v>
-      </c>
-      <c r="AG78" s="147">
-        <v>0</v>
-      </c>
-      <c r="AH78" s="147">
-        <v>1</v>
-      </c>
-      <c r="AI78" s="147">
-        <v>1</v>
-      </c>
-      <c r="AJ78" s="147">
-        <v>0</v>
-      </c>
-      <c r="AK78" s="147">
-        <v>1</v>
-      </c>
-      <c r="AL78" s="147">
-        <v>0</v>
-      </c>
-      <c r="AM78" s="148">
-        <v>1</v>
-      </c>
-      <c r="AN78" s="146">
-        <v>0</v>
-      </c>
-      <c r="AO78" s="139">
-        <v>0</v>
-      </c>
-      <c r="AP78" s="139">
-        <v>0</v>
-      </c>
-      <c r="AQ78" s="139">
-        <v>0</v>
-      </c>
-      <c r="AR78" s="139">
-        <v>0</v>
-      </c>
-      <c r="AS78" s="139">
-        <v>0</v>
-      </c>
-      <c r="AT78" s="139">
-        <v>0</v>
-      </c>
-      <c r="AU78" s="140">
-        <v>1</v>
-      </c>
-      <c r="AV78" s="142">
-        <v>1</v>
-      </c>
-      <c r="AW78" s="139">
-        <v>0</v>
-      </c>
-      <c r="AX78" s="139">
-        <v>1</v>
-      </c>
-      <c r="AY78" s="139">
-        <v>1</v>
-      </c>
-      <c r="AZ78" s="139">
-        <v>0</v>
-      </c>
-      <c r="BA78" s="139">
-        <v>0</v>
-      </c>
-      <c r="BB78" s="147">
-        <v>0</v>
-      </c>
-      <c r="BC78" s="148">
-        <v>0</v>
-      </c>
-      <c r="BD78" s="146">
-        <v>0</v>
-      </c>
-      <c r="BE78" s="147">
-        <v>0</v>
-      </c>
-      <c r="BF78" s="147">
-        <v>0</v>
-      </c>
-      <c r="BG78" s="147">
-        <v>0</v>
-      </c>
-      <c r="BH78" s="147">
-        <v>1</v>
-      </c>
-      <c r="BI78" s="147">
-        <v>1</v>
-      </c>
-      <c r="BJ78" s="147">
-        <v>0</v>
-      </c>
-      <c r="BK78" s="148">
+      <c r="H78" s="87">
+        <v>1</v>
+      </c>
+      <c r="I78" s="88">
+        <v>1</v>
+      </c>
+      <c r="J78" s="88">
+        <v>0</v>
+      </c>
+      <c r="K78" s="88">
+        <v>0</v>
+      </c>
+      <c r="L78" s="90">
+        <v>1</v>
+      </c>
+      <c r="M78" s="88">
+        <v>0</v>
+      </c>
+      <c r="N78" s="88">
+        <v>1</v>
+      </c>
+      <c r="O78" s="84">
+        <v>0</v>
+      </c>
+      <c r="P78" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="83">
+        <v>0</v>
+      </c>
+      <c r="R78" s="83">
+        <v>0</v>
+      </c>
+      <c r="S78" s="83">
+        <v>0</v>
+      </c>
+      <c r="T78" s="83">
+        <v>0</v>
+      </c>
+      <c r="U78" s="83">
+        <v>1</v>
+      </c>
+      <c r="V78" s="83">
+        <v>1</v>
+      </c>
+      <c r="W78" s="84">
+        <v>0</v>
+      </c>
+      <c r="X78" s="86">
+        <v>1</v>
+      </c>
+      <c r="Y78" s="83">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="83">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="88">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="88">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="88">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="89">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="87">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="88">
+        <v>0</v>
+      </c>
+      <c r="AH78" s="88">
+        <v>1</v>
+      </c>
+      <c r="AI78" s="88">
+        <v>1</v>
+      </c>
+      <c r="AJ78" s="88">
+        <v>0</v>
+      </c>
+      <c r="AK78" s="88">
+        <v>1</v>
+      </c>
+      <c r="AL78" s="88">
+        <v>0</v>
+      </c>
+      <c r="AM78" s="89">
+        <v>1</v>
+      </c>
+      <c r="AN78" s="87">
+        <v>0</v>
+      </c>
+      <c r="AO78" s="83">
+        <v>0</v>
+      </c>
+      <c r="AP78" s="83">
+        <v>0</v>
+      </c>
+      <c r="AQ78" s="83">
+        <v>0</v>
+      </c>
+      <c r="AR78" s="83">
+        <v>0</v>
+      </c>
+      <c r="AS78" s="83">
+        <v>0</v>
+      </c>
+      <c r="AT78" s="83">
+        <v>0</v>
+      </c>
+      <c r="AU78" s="84">
+        <v>1</v>
+      </c>
+      <c r="AV78" s="86">
+        <v>1</v>
+      </c>
+      <c r="AW78" s="83">
+        <v>0</v>
+      </c>
+      <c r="AX78" s="83">
+        <v>1</v>
+      </c>
+      <c r="AY78" s="83">
+        <v>1</v>
+      </c>
+      <c r="AZ78" s="83">
+        <v>0</v>
+      </c>
+      <c r="BA78" s="83">
+        <v>0</v>
+      </c>
+      <c r="BB78" s="88">
+        <v>0</v>
+      </c>
+      <c r="BC78" s="89">
+        <v>0</v>
+      </c>
+      <c r="BD78" s="87">
+        <v>0</v>
+      </c>
+      <c r="BE78" s="88">
+        <v>0</v>
+      </c>
+      <c r="BF78" s="88">
+        <v>0</v>
+      </c>
+      <c r="BG78" s="88">
+        <v>0</v>
+      </c>
+      <c r="BH78" s="88">
+        <v>1</v>
+      </c>
+      <c r="BI78" s="88">
+        <v>1</v>
+      </c>
+      <c r="BJ78" s="88">
+        <v>0</v>
+      </c>
+      <c r="BK78" s="89">
         <v>1</v>
       </c>
       <c r="BL78" s="82">
@@ -10240,81 +10239,81 @@
       <c r="E79" s="69"/>
       <c r="F79" s="69"/>
       <c r="G79" s="69"/>
-      <c r="H79" s="143">
+      <c r="H79" s="91">
         <v>202</v>
       </c>
-      <c r="I79" s="144"/>
-      <c r="J79" s="144"/>
-      <c r="K79" s="144"/>
-      <c r="L79" s="144"/>
-      <c r="M79" s="144"/>
-      <c r="N79" s="144"/>
-      <c r="O79" s="145"/>
-      <c r="P79" s="143">
+      <c r="I79" s="92"/>
+      <c r="J79" s="92"/>
+      <c r="K79" s="92"/>
+      <c r="L79" s="92"/>
+      <c r="M79" s="92"/>
+      <c r="N79" s="92"/>
+      <c r="O79" s="93"/>
+      <c r="P79" s="91">
         <v>6</v>
       </c>
-      <c r="Q79" s="144"/>
-      <c r="R79" s="144"/>
-      <c r="S79" s="144"/>
-      <c r="T79" s="144"/>
-      <c r="U79" s="144"/>
-      <c r="V79" s="144"/>
-      <c r="W79" s="145"/>
-      <c r="X79" s="143">
+      <c r="Q79" s="92"/>
+      <c r="R79" s="92"/>
+      <c r="S79" s="92"/>
+      <c r="T79" s="92"/>
+      <c r="U79" s="92"/>
+      <c r="V79" s="92"/>
+      <c r="W79" s="93"/>
+      <c r="X79" s="91">
         <v>128</v>
       </c>
-      <c r="Y79" s="144"/>
-      <c r="Z79" s="144"/>
-      <c r="AA79" s="144"/>
-      <c r="AB79" s="144"/>
-      <c r="AC79" s="144"/>
-      <c r="AD79" s="144"/>
-      <c r="AE79" s="145"/>
-      <c r="AF79" s="143">
+      <c r="Y79" s="92"/>
+      <c r="Z79" s="92"/>
+      <c r="AA79" s="92"/>
+      <c r="AB79" s="92"/>
+      <c r="AC79" s="92"/>
+      <c r="AD79" s="92"/>
+      <c r="AE79" s="93"/>
+      <c r="AF79" s="91">
         <v>53</v>
       </c>
-      <c r="AG79" s="144"/>
-      <c r="AH79" s="144"/>
-      <c r="AI79" s="144"/>
-      <c r="AJ79" s="144"/>
-      <c r="AK79" s="144"/>
-      <c r="AL79" s="144"/>
-      <c r="AM79" s="145"/>
-      <c r="AN79" s="143">
-        <v>1</v>
-      </c>
-      <c r="AO79" s="144"/>
-      <c r="AP79" s="144"/>
-      <c r="AQ79" s="144"/>
-      <c r="AR79" s="144"/>
-      <c r="AS79" s="144"/>
-      <c r="AT79" s="144"/>
-      <c r="AU79" s="145"/>
-      <c r="AV79" s="143">
+      <c r="AG79" s="92"/>
+      <c r="AH79" s="92"/>
+      <c r="AI79" s="92"/>
+      <c r="AJ79" s="92"/>
+      <c r="AK79" s="92"/>
+      <c r="AL79" s="92"/>
+      <c r="AM79" s="93"/>
+      <c r="AN79" s="91">
+        <v>1</v>
+      </c>
+      <c r="AO79" s="92"/>
+      <c r="AP79" s="92"/>
+      <c r="AQ79" s="92"/>
+      <c r="AR79" s="92"/>
+      <c r="AS79" s="92"/>
+      <c r="AT79" s="92"/>
+      <c r="AU79" s="93"/>
+      <c r="AV79" s="91">
         <v>176</v>
       </c>
-      <c r="AW79" s="144"/>
-      <c r="AX79" s="144"/>
-      <c r="AY79" s="144"/>
-      <c r="AZ79" s="144"/>
-      <c r="BA79" s="144"/>
-      <c r="BB79" s="144"/>
-      <c r="BC79" s="145"/>
-      <c r="BD79" s="143">
+      <c r="AW79" s="92"/>
+      <c r="AX79" s="92"/>
+      <c r="AY79" s="92"/>
+      <c r="AZ79" s="92"/>
+      <c r="BA79" s="92"/>
+      <c r="BB79" s="92"/>
+      <c r="BC79" s="93"/>
+      <c r="BD79" s="91">
         <v>13</v>
       </c>
-      <c r="BE79" s="144"/>
-      <c r="BF79" s="144"/>
-      <c r="BG79" s="144"/>
-      <c r="BH79" s="144"/>
-      <c r="BI79" s="144"/>
-      <c r="BJ79" s="144"/>
-      <c r="BK79" s="145"/>
-      <c r="BL79" s="132">
+      <c r="BE79" s="92"/>
+      <c r="BF79" s="92"/>
+      <c r="BG79" s="92"/>
+      <c r="BH79" s="92"/>
+      <c r="BI79" s="92"/>
+      <c r="BJ79" s="92"/>
+      <c r="BK79" s="93"/>
+      <c r="BL79" s="94">
         <v>4</v>
       </c>
-      <c r="BM79" s="114"/>
-      <c r="BN79" s="114"/>
+      <c r="BM79" s="95"/>
+      <c r="BN79" s="95"/>
     </row>
     <row r="80" spans="1:132" x14ac:dyDescent="0.3">
       <c r="C80" s="1"/>
@@ -11708,22 +11707,83 @@
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="BD79:BK79"/>
-    <mergeCell ref="AV79:BC79"/>
-    <mergeCell ref="H79:O79"/>
-    <mergeCell ref="P79:W79"/>
-    <mergeCell ref="X79:AE79"/>
-    <mergeCell ref="AF79:AM79"/>
-    <mergeCell ref="BL79:BN79"/>
-    <mergeCell ref="AN79:AU79"/>
-    <mergeCell ref="B74:I74"/>
-    <mergeCell ref="J74:Q74"/>
-    <mergeCell ref="R74:Y74"/>
-    <mergeCell ref="Z74:AG74"/>
-    <mergeCell ref="AH74:AO74"/>
-    <mergeCell ref="AP74:AW74"/>
-    <mergeCell ref="AX74:BE74"/>
-    <mergeCell ref="BF74:BM74"/>
+    <mergeCell ref="BI60:BN60"/>
+    <mergeCell ref="AW59:BB59"/>
+    <mergeCell ref="BC58:BH58"/>
+    <mergeCell ref="BC59:BH59"/>
+    <mergeCell ref="BI58:BN58"/>
+    <mergeCell ref="BI59:BN59"/>
+    <mergeCell ref="AW57:BB57"/>
+    <mergeCell ref="BC57:BH57"/>
+    <mergeCell ref="BI57:BN57"/>
+    <mergeCell ref="AW58:BB58"/>
+    <mergeCell ref="L59:Q59"/>
+    <mergeCell ref="L58:Q58"/>
+    <mergeCell ref="AG57:AP57"/>
+    <mergeCell ref="R53:AH53"/>
+    <mergeCell ref="AI53:AP53"/>
+    <mergeCell ref="AJ56:AP56"/>
+    <mergeCell ref="AM55:AP55"/>
+    <mergeCell ref="R58:AF58"/>
+    <mergeCell ref="R63:AF63"/>
+    <mergeCell ref="R61:AI61"/>
+    <mergeCell ref="R62:AF62"/>
+    <mergeCell ref="R56:AB56"/>
+    <mergeCell ref="AQ57:AV57"/>
+    <mergeCell ref="AW55:BB55"/>
+    <mergeCell ref="BC55:BH55"/>
+    <mergeCell ref="BI55:BN55"/>
+    <mergeCell ref="AW56:BB56"/>
+    <mergeCell ref="BC56:BH56"/>
+    <mergeCell ref="BI56:BN56"/>
+    <mergeCell ref="L57:Q57"/>
+    <mergeCell ref="R52:AF52"/>
+    <mergeCell ref="R57:AF57"/>
+    <mergeCell ref="R54:AF54"/>
+    <mergeCell ref="AQ55:AV55"/>
+    <mergeCell ref="AQ56:AV56"/>
+    <mergeCell ref="R55:AL55"/>
+    <mergeCell ref="AQ20:AT20"/>
+    <mergeCell ref="AQ50:BN50"/>
+    <mergeCell ref="AW53:BB53"/>
+    <mergeCell ref="BC53:BH53"/>
+    <mergeCell ref="BI53:BN53"/>
+    <mergeCell ref="AG54:AP54"/>
+    <mergeCell ref="AW54:BB54"/>
+    <mergeCell ref="BC54:BH54"/>
+    <mergeCell ref="BI54:BN54"/>
+    <mergeCell ref="BI51:BN51"/>
+    <mergeCell ref="AQ52:AV52"/>
+    <mergeCell ref="AQ53:AV53"/>
+    <mergeCell ref="AQ54:AV54"/>
+    <mergeCell ref="AQ51:AV51"/>
+    <mergeCell ref="AW51:BB51"/>
+    <mergeCell ref="AK51:AP51"/>
+    <mergeCell ref="BC51:BH51"/>
+    <mergeCell ref="AW52:BB52"/>
+    <mergeCell ref="BC52:BH52"/>
+    <mergeCell ref="BI52:BN52"/>
+    <mergeCell ref="AU19:BB19"/>
+    <mergeCell ref="CX2:DE2"/>
+    <mergeCell ref="U3:X18"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="BZ2:CG2"/>
+    <mergeCell ref="CH2:CO2"/>
+    <mergeCell ref="CP2:CW2"/>
+    <mergeCell ref="BC19:BJ19"/>
+    <mergeCell ref="BK19:BR19"/>
+    <mergeCell ref="BS19:BZ19"/>
+    <mergeCell ref="AK19:AT19"/>
+    <mergeCell ref="BF46:BI46"/>
+    <mergeCell ref="BJ46:BL46"/>
+    <mergeCell ref="BF44:BI44"/>
+    <mergeCell ref="BF45:BI45"/>
+    <mergeCell ref="BJ44:BL44"/>
+    <mergeCell ref="BJ45:BL45"/>
+    <mergeCell ref="AH44:AO44"/>
+    <mergeCell ref="AP44:AW44"/>
+    <mergeCell ref="AX43:BE43"/>
+    <mergeCell ref="BJ43:BL43"/>
     <mergeCell ref="AQ23:AT23"/>
     <mergeCell ref="AQ24:AT24"/>
     <mergeCell ref="AQ25:AT25"/>
@@ -11747,84 +11807,23 @@
     <mergeCell ref="I41:L41"/>
     <mergeCell ref="I42:L42"/>
     <mergeCell ref="I43:L43"/>
-    <mergeCell ref="BF46:BI46"/>
-    <mergeCell ref="BJ46:BL46"/>
-    <mergeCell ref="BF44:BI44"/>
-    <mergeCell ref="BF45:BI45"/>
-    <mergeCell ref="BJ44:BL44"/>
-    <mergeCell ref="BJ45:BL45"/>
-    <mergeCell ref="AH44:AO44"/>
-    <mergeCell ref="AP44:AW44"/>
-    <mergeCell ref="AX43:BE43"/>
-    <mergeCell ref="BJ43:BL43"/>
     <mergeCell ref="AQ22:AT22"/>
-    <mergeCell ref="AU19:BB19"/>
-    <mergeCell ref="CX2:DE2"/>
-    <mergeCell ref="U3:X18"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="BZ2:CG2"/>
-    <mergeCell ref="CH2:CO2"/>
-    <mergeCell ref="CP2:CW2"/>
-    <mergeCell ref="BC19:BJ19"/>
-    <mergeCell ref="BK19:BR19"/>
-    <mergeCell ref="BS19:BZ19"/>
-    <mergeCell ref="AK19:AT19"/>
-    <mergeCell ref="AQ20:AT20"/>
-    <mergeCell ref="AQ50:BN50"/>
-    <mergeCell ref="AW53:BB53"/>
-    <mergeCell ref="BC53:BH53"/>
-    <mergeCell ref="BI53:BN53"/>
-    <mergeCell ref="AG54:AP54"/>
-    <mergeCell ref="AW54:BB54"/>
-    <mergeCell ref="BC54:BH54"/>
-    <mergeCell ref="BI54:BN54"/>
-    <mergeCell ref="BI51:BN51"/>
-    <mergeCell ref="AQ52:AV52"/>
-    <mergeCell ref="AQ53:AV53"/>
-    <mergeCell ref="AQ54:AV54"/>
-    <mergeCell ref="AQ51:AV51"/>
-    <mergeCell ref="AW51:BB51"/>
-    <mergeCell ref="AK51:AP51"/>
-    <mergeCell ref="BC51:BH51"/>
-    <mergeCell ref="AW52:BB52"/>
-    <mergeCell ref="BC52:BH52"/>
-    <mergeCell ref="BI52:BN52"/>
-    <mergeCell ref="AQ57:AV57"/>
-    <mergeCell ref="AW55:BB55"/>
-    <mergeCell ref="BC55:BH55"/>
-    <mergeCell ref="BI55:BN55"/>
-    <mergeCell ref="AW56:BB56"/>
-    <mergeCell ref="BC56:BH56"/>
-    <mergeCell ref="BI56:BN56"/>
-    <mergeCell ref="L57:Q57"/>
-    <mergeCell ref="R52:AF52"/>
-    <mergeCell ref="R57:AF57"/>
-    <mergeCell ref="R54:AF54"/>
-    <mergeCell ref="AQ55:AV55"/>
-    <mergeCell ref="AQ56:AV56"/>
-    <mergeCell ref="R55:AL55"/>
-    <mergeCell ref="L59:Q59"/>
-    <mergeCell ref="L58:Q58"/>
-    <mergeCell ref="AG57:AP57"/>
-    <mergeCell ref="R53:AH53"/>
-    <mergeCell ref="AI53:AP53"/>
-    <mergeCell ref="AJ56:AP56"/>
-    <mergeCell ref="AM55:AP55"/>
-    <mergeCell ref="R58:AF58"/>
-    <mergeCell ref="R63:AF63"/>
-    <mergeCell ref="R61:AI61"/>
-    <mergeCell ref="R62:AF62"/>
-    <mergeCell ref="R56:AB56"/>
-    <mergeCell ref="BI60:BN60"/>
-    <mergeCell ref="AW59:BB59"/>
-    <mergeCell ref="BC58:BH58"/>
-    <mergeCell ref="BC59:BH59"/>
-    <mergeCell ref="BI58:BN58"/>
-    <mergeCell ref="BI59:BN59"/>
-    <mergeCell ref="AW57:BB57"/>
-    <mergeCell ref="BC57:BH57"/>
-    <mergeCell ref="BI57:BN57"/>
-    <mergeCell ref="AW58:BB58"/>
+    <mergeCell ref="BD79:BK79"/>
+    <mergeCell ref="AV79:BC79"/>
+    <mergeCell ref="H79:O79"/>
+    <mergeCell ref="P79:W79"/>
+    <mergeCell ref="X79:AE79"/>
+    <mergeCell ref="AF79:AM79"/>
+    <mergeCell ref="BL79:BN79"/>
+    <mergeCell ref="AN79:AU79"/>
+    <mergeCell ref="B74:I74"/>
+    <mergeCell ref="J74:Q74"/>
+    <mergeCell ref="R74:Y74"/>
+    <mergeCell ref="Z74:AG74"/>
+    <mergeCell ref="AH74:AO74"/>
+    <mergeCell ref="AP74:AW74"/>
+    <mergeCell ref="AX74:BE74"/>
+    <mergeCell ref="BF74:BM74"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.5" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
